--- a/biology/Zoologie/Bhutanitis/Bhutanitis.xlsx
+++ b/biology/Zoologie/Bhutanitis/Bhutanitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bhutanitis regroupe des papillons appartenant à la famille des Papilionidae et à la sous-famille des Parnassiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Bhutanitis leur a été donné par William Stephen Atkinson en 1873.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes hôtes de leurs larves sont des aristoloches.
 Ils résident en Asie, sur une zone restreinte, dans le nord de l'Inde, au Bhoutan, au Tibet, dans l'ouest de la Chine et dans le nord de la Thaïlande.
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bhutanitis lidderdalii Atkinson, 1873.Présent au Bhoutan, dans le nord de l'Inde et l'ouest de la Chine.
 Bhutanitis lidderdalii lidderdalii
